--- a/projects/Beetje/BloK_Status.xlsx
+++ b/projects/Beetje/BloK_Status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>Rev</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>MCP73831</t>
-  </si>
-  <si>
-    <t>Add section to indicate current limit</t>
   </si>
   <si>
     <t>IRLB8721</t>
@@ -215,9 +212,6 @@
 -40 - 125C</t>
   </si>
   <si>
-    <t>Designed, update BOM</t>
-  </si>
-  <si>
     <t>Press-Diff</t>
   </si>
   <si>
@@ -285,6 +279,15 @@
   </si>
   <si>
     <t>Needs Testing</t>
+  </si>
+  <si>
+    <t>Works!</t>
+  </si>
+  <si>
+    <t>Switch chips, power switch</t>
+  </si>
+  <si>
+    <t>DEBUG!</t>
   </si>
 </sst>
 </file>
@@ -710,9 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -846,13 +847,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9">
         <v>0.3</v>
@@ -861,23 +862,21 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.2</v>
+        <v>40</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D7" s="9">
         <v>0.3</v>
@@ -885,9 +884,7 @@
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -896,155 +893,143 @@
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="11">
-        <v>0</v>
+      <c r="B8" s="9">
+        <v>0.1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="9">
         <v>0.3</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0.1</v>
+        <v>51</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9">
         <v>0.3</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="H9" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B10" s="11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10" s="9">
         <v>0.3</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>61</v>
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B11" s="11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9">
         <v>0.3</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" s="8" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="11">
-        <v>0.2</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D12" s="9">
         <v>0.3</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="8"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -1058,60 +1043,70 @@
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="A15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B17" s="9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D17" s="9">
         <v>0.3</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>24</v>
@@ -1127,12 +1122,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0.3</v>
+        <v>45</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.1</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
@@ -1141,23 +1136,25 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="F19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="I19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B20" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>24</v>
@@ -1165,11 +1162,19 @@
       <c r="D20" s="9">
         <v>0.3</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
@@ -1187,7 +1192,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1200,7 +1205,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -1209,15 +1214,15 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="11">
         <v>0.1</v>
@@ -1230,19 +1235,19 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="11">
         <v>0</v>
@@ -1253,26 +1258,26 @@
       <c r="D26" s="9"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="11">
         <v>0.1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1282,7 +1287,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
@@ -1295,23 +1300,23 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="11">
         <v>0</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="9">
         <v>0.2</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1345,7 +1350,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="11">
         <v>0</v>
@@ -1358,13 +1363,13 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="I33" s="8"/>
     </row>

--- a/projects/Beetje/BloK_Status.xlsx
+++ b/projects/Beetje/BloK_Status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>Rev</t>
   </si>
@@ -284,10 +284,10 @@
     <t>Works!</t>
   </si>
   <si>
-    <t>Switch chips, power switch</t>
-  </si>
-  <si>
     <t>DEBUG!</t>
+  </si>
+  <si>
+    <t>0.5 works but silk on CHG/DONE reversed</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1021,15 +1023,29 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -1043,70 +1059,60 @@
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9">
         <v>0.3</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="I17" s="8" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>24</v>
@@ -1122,12 +1128,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0.1</v>
+        <v>27</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.2</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
@@ -1136,25 +1142,19 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0.5</v>
+        <v>45</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.1</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>24</v>
@@ -1162,15 +1162,15 @@
       <c r="D20" s="9">
         <v>0.3</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>85</v>
+      <c r="E20" s="8"/>
+      <c r="F20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>25</v>
